--- a/spliced/falling/2023-03-25_17-55-35/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.1456913650035858</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1567803621292113</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2.781254351139069</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9996474064886576</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.050854530185461</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0387899428606033</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0474947728216648</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-35/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-35/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6303038597106934</v>
+        <v>-0.7812347412109375</v>
       </c>
       <c r="D2" t="n">
-        <v>2.39460033774376</v>
+        <v>2.500675392150879</v>
       </c>
       <c r="E2" t="n">
-        <v>2.063519307971001</v>
+        <v>2.085890746116638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0442877300083637</v>
+        <v>-0.0421497002243995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0798706337809562</v>
+        <v>0.0813977941870689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0123700210824608</v>
+        <v>-0.0167987942695617</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.5232744216918948</v>
+        <v>-0.6001354455947877</v>
       </c>
       <c r="D3" t="n">
-        <v>2.33260555267334</v>
+        <v>2.425701588392258</v>
       </c>
       <c r="E3" t="n">
-        <v>1.824701523780822</v>
+        <v>1.942269176244736</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0595593601465225</v>
+        <v>-0.0009162978967650999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0303905457258224</v>
+        <v>-0.0372627787292003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0181732401251792</v>
+        <v>-0.051312681287527</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7410809755325318</v>
+        <v>-0.4221334457397461</v>
       </c>
       <c r="D4" t="n">
-        <v>2.134066888689995</v>
+        <v>2.401677787303925</v>
       </c>
       <c r="E4" t="n">
-        <v>1.285716485977173</v>
+        <v>1.923809313774109</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00534507073462</v>
+        <v>-0.0261144898831844</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0339030213654041</v>
+        <v>0.06383541971445079</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0303905457258224</v>
+        <v>-0.0560468845069408</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.2835536479949948</v>
+        <v>-0.4831114292144776</v>
       </c>
       <c r="D5" t="n">
-        <v>1.980954867601395</v>
+        <v>2.420794081687927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2343389749526972</v>
+        <v>2.053104478120804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0459676086902618</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0532979927957057</v>
+        <v>0.0224492978304624</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1757764816284179</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.529338419437408</v>
+        <v>-0.4990121841430664</v>
       </c>
       <c r="D6" t="n">
-        <v>2.245944246649742</v>
+        <v>2.45754919052124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1200629770755768</v>
+        <v>2.050947427749634</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1426370292901992</v>
+        <v>0.0284052342176437</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4100432991981506</v>
+        <v>-0.0120645882561802</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1085812970995903</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.762292957305908</v>
+        <v>-0.4582573175430297</v>
       </c>
       <c r="D7" t="n">
-        <v>1.919589138031006</v>
+        <v>2.450900214910507</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2954926252365113</v>
+        <v>1.956571793556213</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1237002089619636</v>
+        <v>0.0213802829384803</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3216205537319183</v>
+        <v>0.0073303831741213</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0311541277915239</v>
+        <v>-0.0117591563612222</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.197947156429292</v>
+        <v>-0.5409791469573973</v>
       </c>
       <c r="D8" t="n">
-        <v>1.681933805346489</v>
+        <v>2.33053719997406</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3819067515432834</v>
+        <v>1.996131032705307</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2638937830924988</v>
+        <v>-0.0149661982432007</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4506658315658569</v>
+        <v>0.042302418500185</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1346957832574844</v>
+        <v>0.0258090570569038</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.11650104522705</v>
+        <v>-0.6303038597106934</v>
       </c>
       <c r="D9" t="n">
-        <v>1.521171301603317</v>
+        <v>2.39460033774376</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9332275912165637</v>
+        <v>2.063519307971001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3332269787788391</v>
+        <v>0.0442877300083637</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4558582007884979</v>
+        <v>0.0798706337809562</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0723875313997268</v>
+        <v>0.0123700210824608</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.768530690670014</v>
+        <v>-0.5232744216918948</v>
       </c>
       <c r="D10" t="n">
-        <v>1.473171654343605</v>
+        <v>2.33260555267334</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2953257039189335</v>
+        <v>1.824701523780822</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0320704244077205</v>
+        <v>0.0595593601465225</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7147123217582703</v>
+        <v>0.0303905457258224</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0733038261532783</v>
+        <v>0.0181732401251792</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.971992969512948</v>
+        <v>-0.7410809755325318</v>
       </c>
       <c r="D11" t="n">
-        <v>1.761710226535796</v>
+        <v>2.134066888689995</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3112654983997316</v>
+        <v>1.285716485977173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2872593700885772</v>
+        <v>-0.00534507073462</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7376197576522827</v>
+        <v>-0.0339030213654041</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.3023782968521118</v>
+        <v>0.0303905457258224</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.837122094631188</v>
+        <v>-0.2835536479949948</v>
       </c>
       <c r="D12" t="n">
-        <v>1.392113929986956</v>
+        <v>1.980954867601395</v>
       </c>
       <c r="E12" t="n">
-        <v>2.611395421624172</v>
+        <v>0.2343389749526972</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.120784997940064</v>
+        <v>0.0459676086902618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9436340928077698</v>
+        <v>-0.0532979927957057</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.777909755706787</v>
+        <v>0.1757764816284179</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.09898402690889618</v>
+        <v>-1.529338419437408</v>
       </c>
       <c r="D13" t="n">
-        <v>2.09258412122727</v>
+        <v>2.245944246649742</v>
       </c>
       <c r="E13" t="n">
-        <v>5.970039045810694</v>
+        <v>0.1200629770755768</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.083369493484497</v>
+        <v>-0.1426370292901992</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2501220703125</v>
+        <v>-0.4100432991981506</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.494189977645874</v>
+        <v>-0.1085812970995903</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.021431350707996</v>
+        <v>-1.762292957305908</v>
       </c>
       <c r="D14" t="n">
-        <v>3.897843426465977</v>
+        <v>1.919589138031006</v>
       </c>
       <c r="E14" t="n">
-        <v>2.894297271966933</v>
+        <v>-0.2954926252365113</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2246456891298294</v>
+        <v>-0.1237002089619636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6049093008041382</v>
+        <v>-0.3216205537319183</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3110831379890442</v>
+        <v>-0.0311541277915239</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.752513694763174</v>
+        <v>-3.197947156429292</v>
       </c>
       <c r="D15" t="n">
-        <v>1.26214294433594</v>
+        <v>1.681933805346489</v>
       </c>
       <c r="E15" t="n">
-        <v>2.215038943290709</v>
+        <v>-0.3819067515432834</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0445931628346443</v>
+        <v>-0.2638937830924988</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2460259795188903</v>
+        <v>-0.4506658315658569</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2205223590135574</v>
+        <v>-0.1346957832574844</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.8335286378860537</v>
+        <v>-4.11650104522705</v>
       </c>
       <c r="D16" t="n">
-        <v>2.680000334978103</v>
+        <v>1.521171301603317</v>
       </c>
       <c r="E16" t="n">
-        <v>1.48247443139553</v>
+        <v>-0.9332275912165637</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0360410511493682</v>
+        <v>-0.3332269787788391</v>
       </c>
       <c r="G16" t="n">
-        <v>1.270752429962158</v>
+        <v>-0.4558582007884979</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1033889427781105</v>
+        <v>-0.0723875313997268</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.149217176437378</v>
+        <v>-4.768530690670014</v>
       </c>
       <c r="D17" t="n">
-        <v>2.79909211397171</v>
+        <v>1.473171654343605</v>
       </c>
       <c r="E17" t="n">
-        <v>1.387107414007188</v>
+        <v>-0.2953257039189335</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1259909570217132</v>
+        <v>0.0320704244077205</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7915286421775818</v>
+        <v>-0.7147123217582703</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2243402600288391</v>
+        <v>0.0733038261532783</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.04998896121979</v>
+        <v>-2.971992969512948</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530032843351366</v>
+        <v>1.761710226535796</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8531217783689553</v>
+        <v>-0.3112654983997316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.180816113948822</v>
+        <v>0.2872593700885772</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5984952449798584</v>
+        <v>0.7376197576522827</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3129157125949859</v>
+        <v>-0.3023782968521118</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.119726562500003</v>
+        <v>-2.837122094631188</v>
       </c>
       <c r="D19" t="n">
-        <v>1.84428286552429</v>
+        <v>1.392113929986956</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8842907547950768</v>
+        <v>2.611395421624172</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1476766765117645</v>
+        <v>-1.120784997940064</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3284927904605865</v>
+        <v>0.9436340928077698</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2247984111309051</v>
+        <v>-2.777909755706787</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4374212741851807</v>
+        <v>0.09898402690889618</v>
       </c>
       <c r="D20" t="n">
-        <v>2.572291845083237</v>
+        <v>2.09258412122727</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7996354326605797</v>
+        <v>5.970039045810694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0265726372599601</v>
+        <v>-1.083369493484497</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0389426611363887</v>
+        <v>2.2501220703125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1386664062738418</v>
+        <v>-0.494189977645874</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>9.021431350707996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.897843426465977</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.894297271966933</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.2246456891298294</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6049093008041382</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3110831379890442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.752513694763174</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.26214294433594</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.215038943290709</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0445931628346443</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2460259795188903</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2205223590135574</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.8335286378860537</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.680000334978103</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.48247443139553</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0360410511493682</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.270752429962158</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1033889427781105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.149217176437378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.79909211397171</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.387107414007188</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1259909570217132</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7915286421775818</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2243402600288391</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.04998896121979</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.530032843351366</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.8531217783689553</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.180816113948822</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.5984952449798584</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.3129157125949859</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.119726562500003</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.84428286552429</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8842907547950768</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1476766765117645</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3284927904605865</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2247984111309051</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4374212741851807</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.572291845083237</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7996354326605797</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0265726372599601</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0389426611363887</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1386664062738418</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>0.3087260723114021</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>2.726021051406861</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>0.5522446408867842</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>-0.06856962293386459</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>-0.0618501044809818</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>-0.1456913650035858</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1567803621292113</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.781254351139069</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9996474064886576</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.050854530185461</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0387899428606033</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0474947728216648</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.246018409729004</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.646198272705077</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.203094172477722</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0126754539087414</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0435241498053073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4407022714614867</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.732884711027145</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.124532252550125</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.027030786499381</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0493273697793483</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0366519130766391</v>
       </c>
     </row>
   </sheetData>
